--- a/Протокол 101.xlsx
+++ b/Протокол 101.xlsx
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Протокол 101.xlsx
+++ b/Протокол 101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="470">
   <si>
     <t>№101</t>
   </si>
@@ -1420,6 +1420,12 @@
   </si>
   <si>
     <t>ЗАЩ Предуп 0x0001: Низкий уров. РЗ</t>
+  </si>
+  <si>
+    <t>ОБЩ Предуп 0x0400: Установите часы</t>
+  </si>
+  <si>
+    <t>ОБЩ Предуп 0x0001: Резерв</t>
   </si>
 </sst>
 </file>
@@ -1828,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,7 +3337,7 @@
         <v>302</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>302</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3581,7 +3587,7 @@
         <v>330</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">

--- a/Протокол 101.xlsx
+++ b/Протокол 101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="478">
   <si>
     <t>№101</t>
   </si>
@@ -1426,6 +1426,30 @@
   </si>
   <si>
     <t>ОБЩ Предуп 0x0001: Резерв</t>
+  </si>
+  <si>
+    <t>РЗСК-111-ВОЛС</t>
+  </si>
+  <si>
+    <t>ЗАЩ Неиспр 0x0010: Нет КС</t>
+  </si>
+  <si>
+    <t>ЗАЩ Неиспр 0x2000: Резерв</t>
+  </si>
+  <si>
+    <t>ЗАЩ Неиспр 0x4000: Резерв</t>
+  </si>
+  <si>
+    <t>ЗАЩ Неиспр 0x8000: Резерв</t>
+  </si>
+  <si>
+    <t>ЗАЩ Предуп 0x0001: Нет КС</t>
+  </si>
+  <si>
+    <t>ОБЩ Предуп 0x0001:  Установите часы</t>
+  </si>
+  <si>
+    <t>ОБЩ Предуп 0x0010: Удал.ПОСТ неиспр</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1498,11 +1522,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1531,6 +1568,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1832,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,9 +1892,10 @@
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
     <col min="4" max="7" width="42.7109375" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1865,11 +1914,14 @@
       <c r="F1" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2000</v>
       </c>
@@ -1886,11 +1938,12 @@
       <c r="F2" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2001</v>
       </c>
@@ -1907,11 +1960,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2002</v>
@@ -1930,11 +1986,14 @@
         <v>2</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -1953,11 +2012,14 @@
         <v>3</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -1976,11 +2038,14 @@
         <v>4</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -1999,9 +2064,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="18"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -2020,9 +2086,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="18"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -2041,9 +2108,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="18"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -2062,9 +2130,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="18"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -2083,9 +2152,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="18"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -2104,9 +2174,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="18"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -2125,9 +2196,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="18"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -2146,9 +2218,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="18"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -2167,9 +2240,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="18"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -2188,9 +2262,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -2209,9 +2284,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -2230,9 +2306,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -2251,9 +2328,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -2272,9 +2350,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="18"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -2293,9 +2372,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="18"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -2314,9 +2394,10 @@
         <v>20</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="18"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -2335,9 +2416,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="18"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -2356,9 +2438,10 @@
         <v>22</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="18"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -2377,9 +2460,10 @@
         <v>23</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="18"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -2398,9 +2482,10 @@
         <v>24</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="18"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -2419,9 +2504,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="18"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -2440,9 +2526,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="18"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>2027</v>
@@ -2461,9 +2548,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="18"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>2028</v>
@@ -2482,9 +2570,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="18"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>2029</v>
@@ -2503,9 +2592,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="18"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>2030</v>
@@ -2524,9 +2614,10 @@
         <v>30</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="18"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>2031</v>
@@ -2545,9 +2636,10 @@
         <v>31</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="18"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>2032</v>
@@ -2566,9 +2658,10 @@
         <v>32</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="18"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>2033</v>
@@ -2586,9 +2679,10 @@
         <v>33</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="18"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>392</v>
@@ -2603,11 +2697,13 @@
       <c r="F36" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="17" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="6"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f>A2+101</f>
         <v>2101</v>
@@ -2625,14 +2721,17 @@
         <v>267</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f>A37+1</f>
         <v>2102</v>
@@ -2650,14 +2749,17 @@
         <v>265</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" ref="A39:A44" si="2">A38+1</f>
         <v>2103</v>
@@ -2675,14 +2777,17 @@
         <v>266</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="2"/>
         <v>2104</v>
@@ -2700,14 +2805,17 @@
         <v>268</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="2"/>
         <v>2105</v>
@@ -2725,14 +2833,17 @@
         <v>269</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="2"/>
         <v>2106</v>
@@ -2750,14 +2861,17 @@
         <v>270</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="2"/>
         <v>2107</v>
@@ -2771,9 +2885,11 @@
       <c r="D43" s="8"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="18"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="2"/>
         <v>2108</v>
@@ -2787,18 +2903,22 @@
       <c r="D44" s="8"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="18"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="20"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <f>A2+201</f>
         <v>2201</v>
@@ -2819,14 +2939,17 @@
       <c r="F46" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <f>A46+1</f>
         <v>2202</v>
@@ -2847,14 +2970,17 @@
       <c r="F47" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <f t="shared" ref="A48:A49" si="3">A47+1</f>
         <v>2203</v>
@@ -2873,14 +2999,17 @@
         <v>280</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <f t="shared" si="3"/>
         <v>2204</v>
@@ -2899,23 +3028,28 @@
         <v>281</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="20"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f>A2+301</f>
         <v>2301</v>
@@ -2936,11 +3070,14 @@
       <c r="F51" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f>A51+1</f>
         <v>2302</v>
@@ -2961,11 +3098,14 @@
       <c r="F52" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="18" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" ref="A53:A82" si="5">A52+1</f>
         <v>2303</v>
@@ -2986,11 +3126,14 @@
       <c r="F53" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="18" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" si="5"/>
         <v>2304</v>
@@ -3011,11 +3154,14 @@
       <c r="F54" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f t="shared" si="5"/>
         <v>2305</v>
@@ -3036,11 +3182,14 @@
       <c r="F55" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="18" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" si="5"/>
         <v>2306</v>
@@ -3061,11 +3210,14 @@
       <c r="F56" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="18" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>2307</v>
@@ -3086,11 +3238,14 @@
       <c r="F57" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="18" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>2308</v>
@@ -3111,11 +3266,14 @@
       <c r="F58" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="18" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>2309</v>
@@ -3136,11 +3294,14 @@
       <c r="F59" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="18" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>2310</v>
@@ -3161,11 +3322,14 @@
       <c r="F60" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="18" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>2311</v>
@@ -3186,11 +3350,14 @@
       <c r="F61" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="18" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>2312</v>
@@ -3211,11 +3378,14 @@
       <c r="F62" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="18" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>2313</v>
@@ -3236,11 +3406,14 @@
       <c r="F63" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="18" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>2314</v>
@@ -3261,11 +3434,14 @@
       <c r="F64" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="18" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>2315</v>
@@ -3286,11 +3462,14 @@
       <c r="F65" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="18" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>2316</v>
@@ -3311,11 +3490,14 @@
       <c r="F66" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="18" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>2317</v>
@@ -3336,11 +3518,14 @@
       <c r="F67" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="18" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>2318</v>
@@ -3361,11 +3546,14 @@
       <c r="F68" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <f t="shared" si="5"/>
         <v>2319</v>
@@ -3386,11 +3574,14 @@
       <c r="F69" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="18" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <f t="shared" si="5"/>
         <v>2320</v>
@@ -3411,11 +3602,14 @@
       <c r="F70" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="18" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>2321</v>
@@ -3436,11 +3630,14 @@
       <c r="F71" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>2322</v>
@@ -3461,11 +3658,14 @@
       <c r="F72" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="18" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>2323</v>
@@ -3486,11 +3686,14 @@
       <c r="F73" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="18" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>2324</v>
@@ -3511,11 +3714,14 @@
       <c r="F74" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="18" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>2325</v>
@@ -3536,11 +3742,14 @@
       <c r="F75" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="18" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>2326</v>
@@ -3561,11 +3770,14 @@
       <c r="F76" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="18" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <f t="shared" si="5"/>
         <v>2327</v>
@@ -3586,11 +3798,14 @@
       <c r="F77" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="18" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <f t="shared" si="5"/>
         <v>2328</v>
@@ -3611,11 +3826,14 @@
       <c r="F78" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="18" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <f t="shared" si="5"/>
         <v>2329</v>
@@ -3636,11 +3854,14 @@
       <c r="F79" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="18" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <f t="shared" si="5"/>
         <v>2330</v>
@@ -3661,11 +3882,14 @@
       <c r="F80" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="18" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <f t="shared" si="5"/>
         <v>2331</v>
@@ -3686,11 +3910,14 @@
       <c r="F81" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="18" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <f t="shared" si="5"/>
         <v>2332</v>
@@ -3711,11 +3938,14 @@
       <c r="F82" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="18" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
         <v>401</v>
@@ -3730,11 +3960,12 @@
       <c r="F83" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="17" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <f>A2+400</f>
         <v>2400</v>
@@ -3753,11 +3984,14 @@
         <v>78</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <f>A84+1</f>
         <v>2401</v>
@@ -3776,11 +4010,14 @@
         <v>303</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="18" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <f t="shared" ref="A86:A116" si="7">A85+1</f>
         <v>2402</v>
@@ -3799,11 +4036,14 @@
         <v>304</v>
       </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="18" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <f t="shared" si="7"/>
         <v>2403</v>
@@ -3822,11 +4062,14 @@
         <v>343</v>
       </c>
       <c r="F87" s="4"/>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="18" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <f t="shared" si="7"/>
         <v>2404</v>
@@ -3845,11 +4088,14 @@
         <v>344</v>
       </c>
       <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="18" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <f t="shared" si="7"/>
         <v>2405</v>
@@ -3868,11 +4114,14 @@
         <v>345</v>
       </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="18" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <f t="shared" si="7"/>
         <v>2406</v>
@@ -3891,11 +4140,14 @@
         <v>346</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="18" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <f t="shared" si="7"/>
         <v>2407</v>
@@ -3914,11 +4166,14 @@
         <v>347</v>
       </c>
       <c r="F91" s="4"/>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="18" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <f t="shared" si="7"/>
         <v>2408</v>
@@ -3937,11 +4192,14 @@
         <v>348</v>
       </c>
       <c r="F92" s="4"/>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="18" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <f t="shared" si="7"/>
         <v>2409</v>
@@ -3960,11 +4218,14 @@
         <v>305</v>
       </c>
       <c r="F93" s="4"/>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <f t="shared" si="7"/>
         <v>2410</v>
@@ -3983,11 +4244,14 @@
         <v>306</v>
       </c>
       <c r="F94" s="4"/>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="18" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <f t="shared" si="7"/>
         <v>2411</v>
@@ -4006,11 +4270,14 @@
         <v>307</v>
       </c>
       <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="18" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <f t="shared" si="7"/>
         <v>2412</v>
@@ -4029,11 +4296,14 @@
         <v>308</v>
       </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="18" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <f t="shared" si="7"/>
         <v>2413</v>
@@ -4052,11 +4322,14 @@
         <v>349</v>
       </c>
       <c r="F97" s="4"/>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="18" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <f t="shared" si="7"/>
         <v>2414</v>
@@ -4075,11 +4348,14 @@
         <v>350</v>
       </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="18" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f t="shared" si="7"/>
         <v>2415</v>
@@ -4098,11 +4374,14 @@
         <v>351</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="18" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <f t="shared" si="7"/>
         <v>2416</v>
@@ -4121,11 +4400,14 @@
         <v>352</v>
       </c>
       <c r="F100" s="4"/>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="18" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f t="shared" si="7"/>
         <v>2417</v>
@@ -4144,11 +4426,14 @@
         <v>353</v>
       </c>
       <c r="F101" s="4"/>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="18" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f t="shared" si="7"/>
         <v>2418</v>
@@ -4167,11 +4452,14 @@
         <v>404</v>
       </c>
       <c r="F102" s="4"/>
-      <c r="G102" s="4" t="s">
+      <c r="G102" s="18" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <f t="shared" si="7"/>
         <v>2419</v>
@@ -4190,11 +4478,14 @@
         <v>405</v>
       </c>
       <c r="F103" s="4"/>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="18" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <f t="shared" si="7"/>
         <v>2420</v>
@@ -4213,11 +4504,14 @@
         <v>354</v>
       </c>
       <c r="F104" s="4"/>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="18" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f t="shared" si="7"/>
         <v>2421</v>
@@ -4236,11 +4530,14 @@
         <v>355</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="18" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f t="shared" si="7"/>
         <v>2422</v>
@@ -4259,11 +4556,14 @@
         <v>356</v>
       </c>
       <c r="F106" s="4"/>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="18" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <f t="shared" si="7"/>
         <v>2423</v>
@@ -4282,11 +4582,14 @@
         <v>357</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="18" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <f t="shared" si="7"/>
         <v>2424</v>
@@ -4305,11 +4608,14 @@
         <v>358</v>
       </c>
       <c r="F108" s="4"/>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="18" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <f t="shared" si="7"/>
         <v>2425</v>
@@ -4328,11 +4634,14 @@
         <v>359</v>
       </c>
       <c r="F109" s="4"/>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="18" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <f t="shared" si="7"/>
         <v>2426</v>
@@ -4351,11 +4660,14 @@
         <v>360</v>
       </c>
       <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="18" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <f t="shared" si="7"/>
         <v>2427</v>
@@ -4374,11 +4686,14 @@
         <v>361</v>
       </c>
       <c r="F111" s="4"/>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="18" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <f t="shared" si="7"/>
         <v>2428</v>
@@ -4397,7 +4712,10 @@
         <v>362</v>
       </c>
       <c r="F112" s="4"/>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4420,7 +4738,10 @@
         <v>363</v>
       </c>
       <c r="F113" s="4"/>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4443,7 +4764,10 @@
         <v>364</v>
       </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4466,7 +4790,10 @@
         <v>365</v>
       </c>
       <c r="F115" s="4"/>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4489,7 +4816,10 @@
         <v>366</v>
       </c>
       <c r="F116" s="4"/>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4500,7 +4830,8 @@
       <c r="D117" s="8"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
@@ -4521,10 +4852,12 @@
         <v>79</v>
       </c>
       <c r="F118" s="4"/>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H118" s="9"/>
+      <c r="H118" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
@@ -4545,7 +4878,10 @@
         <v>80</v>
       </c>
       <c r="F119" s="4"/>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4568,7 +4904,10 @@
         <v>81</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4591,7 +4930,10 @@
         <v>82</v>
       </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H121" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4614,7 +4956,8 @@
         <v>83</v>
       </c>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -4635,7 +4978,8 @@
         <v>84</v>
       </c>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
@@ -4656,7 +5000,8 @@
         <v>85</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
@@ -4677,7 +5022,8 @@
         <v>86</v>
       </c>
       <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
@@ -4698,7 +5044,8 @@
         <v>87</v>
       </c>
       <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
@@ -4719,7 +5066,8 @@
         <v>88</v>
       </c>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -4740,9 +5088,10 @@
         <v>89</v>
       </c>
       <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="18"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <f t="shared" si="9"/>
         <v>2461</v>
@@ -4761,9 +5110,10 @@
         <v>90</v>
       </c>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="18"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <f t="shared" si="9"/>
         <v>2462</v>
@@ -4782,9 +5132,10 @@
         <v>91</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="18"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <f t="shared" si="9"/>
         <v>2463</v>
@@ -4803,9 +5154,10 @@
         <v>92</v>
       </c>
       <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="18"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <f t="shared" si="9"/>
         <v>2464</v>
@@ -4824,9 +5176,10 @@
         <v>93</v>
       </c>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="18"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <f t="shared" si="9"/>
         <v>2465</v>
@@ -4845,9 +5198,10 @@
         <v>94</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="18"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <f t="shared" si="9"/>
         <v>2466</v>
@@ -4866,9 +5220,10 @@
         <v>95</v>
       </c>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="18"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <f t="shared" si="9"/>
         <v>2467</v>
@@ -4887,9 +5242,10 @@
         <v>96</v>
       </c>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="18"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <f t="shared" si="9"/>
         <v>2468</v>
@@ -4908,9 +5264,10 @@
         <v>97</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="18"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <f t="shared" si="9"/>
         <v>2469</v>
@@ -4929,9 +5286,10 @@
         <v>98</v>
       </c>
       <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="18"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <f t="shared" si="9"/>
         <v>2470</v>
@@ -4950,9 +5308,10 @@
         <v>99</v>
       </c>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="18"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <f t="shared" si="9"/>
         <v>2471</v>
@@ -4971,9 +5330,10 @@
         <v>100</v>
       </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="18"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <f t="shared" si="9"/>
         <v>2472</v>
@@ -4992,9 +5352,10 @@
         <v>101</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="18"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <f t="shared" si="9"/>
         <v>2473</v>
@@ -5013,9 +5374,10 @@
         <v>102</v>
       </c>
       <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="18"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <f t="shared" si="9"/>
         <v>2474</v>
@@ -5034,9 +5396,10 @@
         <v>103</v>
       </c>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="18"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <f t="shared" si="9"/>
         <v>2475</v>
@@ -5055,9 +5418,10 @@
         <v>104</v>
       </c>
       <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="18"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <f t="shared" si="9"/>
         <v>2476</v>
@@ -5076,9 +5440,10 @@
         <v>105</v>
       </c>
       <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="18"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <f t="shared" si="9"/>
         <v>2477</v>
@@ -5097,9 +5462,10 @@
         <v>106</v>
       </c>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="18"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <f t="shared" si="9"/>
         <v>2478</v>
@@ -5118,9 +5484,10 @@
         <v>107</v>
       </c>
       <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="18"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <f t="shared" si="9"/>
         <v>2479</v>
@@ -5139,9 +5506,10 @@
         <v>108</v>
       </c>
       <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="18"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <f t="shared" si="9"/>
         <v>2480</v>
@@ -5160,9 +5528,10 @@
         <v>109</v>
       </c>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="18"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <f>A148+1</f>
         <v>2481</v>
@@ -5181,18 +5550,20 @@
         <v>110</v>
       </c>
       <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="18"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="18"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2485</v>
       </c>
@@ -5209,11 +5580,14 @@
         <v>286</v>
       </c>
       <c r="F151" s="4"/>
-      <c r="G151" s="4" t="s">
+      <c r="G151" s="18" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2486</v>
       </c>
@@ -5230,11 +5604,14 @@
         <v>287</v>
       </c>
       <c r="F152" s="4"/>
-      <c r="G152" s="4" t="s">
+      <c r="G152" s="18" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2487</v>
       </c>
@@ -5251,11 +5628,14 @@
         <v>288</v>
       </c>
       <c r="F153" s="4"/>
-      <c r="G153" s="4" t="s">
+      <c r="G153" s="18" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5" t="s">
         <v>402</v>
@@ -5270,11 +5650,12 @@
       <c r="F154" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="17" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <f>A2+500</f>
         <v>2500</v>
@@ -5293,9 +5674,14 @@
         <v>167</v>
       </c>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <f>A155+1</f>
         <v>2501</v>
@@ -5314,11 +5700,14 @@
         <v>311</v>
       </c>
       <c r="F156" s="4"/>
-      <c r="G156" s="4" t="s">
+      <c r="G156" s="18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <f t="shared" ref="A157:A187" si="11">A156+1</f>
         <v>2502</v>
@@ -5337,11 +5726,14 @@
         <v>312</v>
       </c>
       <c r="F157" s="4"/>
-      <c r="G157" s="4" t="s">
+      <c r="G157" s="18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <f t="shared" si="11"/>
         <v>2503</v>
@@ -5360,11 +5752,14 @@
         <v>406</v>
       </c>
       <c r="F158" s="4"/>
-      <c r="G158" s="4" t="s">
+      <c r="G158" s="18" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <f t="shared" si="11"/>
         <v>2504</v>
@@ -5383,11 +5778,14 @@
         <v>407</v>
       </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="4" t="s">
+      <c r="G159" s="18" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <f t="shared" si="11"/>
         <v>2505</v>
@@ -5406,11 +5804,14 @@
         <v>368</v>
       </c>
       <c r="F160" s="4"/>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="18" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <f t="shared" si="11"/>
         <v>2506</v>
@@ -5429,11 +5830,14 @@
         <v>369</v>
       </c>
       <c r="F161" s="4"/>
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="18" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <f t="shared" si="11"/>
         <v>2507</v>
@@ -5452,11 +5856,14 @@
         <v>370</v>
       </c>
       <c r="F162" s="4"/>
-      <c r="G162" s="4" t="s">
+      <c r="G162" s="18" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <f t="shared" si="11"/>
         <v>2508</v>
@@ -5475,11 +5882,14 @@
         <v>371</v>
       </c>
       <c r="F163" s="4"/>
-      <c r="G163" s="4" t="s">
+      <c r="G163" s="18" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <f t="shared" si="11"/>
         <v>2509</v>
@@ -5498,11 +5908,14 @@
         <v>314</v>
       </c>
       <c r="F164" s="4"/>
-      <c r="G164" s="4" t="s">
+      <c r="G164" s="18" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <f t="shared" si="11"/>
         <v>2510</v>
@@ -5521,11 +5934,14 @@
         <v>315</v>
       </c>
       <c r="F165" s="4"/>
-      <c r="G165" s="4" t="s">
+      <c r="G165" s="18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <f t="shared" si="11"/>
         <v>2511</v>
@@ -5544,11 +5960,14 @@
         <v>316</v>
       </c>
       <c r="F166" s="4"/>
-      <c r="G166" s="4" t="s">
+      <c r="G166" s="18" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <f t="shared" si="11"/>
         <v>2512</v>
@@ -5567,11 +5986,14 @@
         <v>317</v>
       </c>
       <c r="F167" s="4"/>
-      <c r="G167" s="4" t="s">
+      <c r="G167" s="18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <f t="shared" si="11"/>
         <v>2513</v>
@@ -5590,11 +6012,14 @@
         <v>372</v>
       </c>
       <c r="F168" s="4"/>
-      <c r="G168" s="4" t="s">
+      <c r="G168" s="18" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <f t="shared" si="11"/>
         <v>2514</v>
@@ -5613,11 +6038,14 @@
         <v>373</v>
       </c>
       <c r="F169" s="4"/>
-      <c r="G169" s="4" t="s">
+      <c r="G169" s="18" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <f t="shared" si="11"/>
         <v>2515</v>
@@ -5636,11 +6064,14 @@
         <v>374</v>
       </c>
       <c r="F170" s="4"/>
-      <c r="G170" s="4" t="s">
+      <c r="G170" s="18" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <f t="shared" si="11"/>
         <v>2516</v>
@@ -5659,11 +6090,14 @@
         <v>375</v>
       </c>
       <c r="F171" s="4"/>
-      <c r="G171" s="4" t="s">
+      <c r="G171" s="18" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <f t="shared" si="11"/>
         <v>2517</v>
@@ -5682,11 +6116,14 @@
         <v>408</v>
       </c>
       <c r="F172" s="4"/>
-      <c r="G172" s="4" t="s">
+      <c r="G172" s="18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <f t="shared" si="11"/>
         <v>2518</v>
@@ -5705,11 +6142,14 @@
         <v>409</v>
       </c>
       <c r="F173" s="4"/>
-      <c r="G173" s="4" t="s">
+      <c r="G173" s="18" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <f t="shared" si="11"/>
         <v>2519</v>
@@ -5728,11 +6168,14 @@
         <v>410</v>
       </c>
       <c r="F174" s="4"/>
-      <c r="G174" s="4" t="s">
+      <c r="G174" s="18" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <f t="shared" si="11"/>
         <v>2520</v>
@@ -5751,11 +6194,14 @@
         <v>411</v>
       </c>
       <c r="F175" s="4"/>
-      <c r="G175" s="4" t="s">
+      <c r="G175" s="18" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <f t="shared" si="11"/>
         <v>2521</v>
@@ -5774,11 +6220,14 @@
         <v>377</v>
       </c>
       <c r="F176" s="4"/>
-      <c r="G176" s="4" t="s">
+      <c r="G176" s="18" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <f t="shared" si="11"/>
         <v>2522</v>
@@ -5797,11 +6246,14 @@
         <v>378</v>
       </c>
       <c r="F177" s="4"/>
-      <c r="G177" s="4" t="s">
+      <c r="G177" s="18" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <f t="shared" si="11"/>
         <v>2523</v>
@@ -5820,11 +6272,14 @@
         <v>379</v>
       </c>
       <c r="F178" s="4"/>
-      <c r="G178" s="4" t="s">
+      <c r="G178" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <f t="shared" si="11"/>
         <v>2524</v>
@@ -5843,11 +6298,14 @@
         <v>380</v>
       </c>
       <c r="F179" s="4"/>
-      <c r="G179" s="4" t="s">
+      <c r="G179" s="18" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <f t="shared" si="11"/>
         <v>2525</v>
@@ -5866,11 +6324,14 @@
         <v>381</v>
       </c>
       <c r="F180" s="4"/>
-      <c r="G180" s="4" t="s">
+      <c r="G180" s="18" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <f t="shared" si="11"/>
         <v>2526</v>
@@ -5889,11 +6350,14 @@
         <v>382</v>
       </c>
       <c r="F181" s="4"/>
-      <c r="G181" s="4" t="s">
+      <c r="G181" s="18" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <f t="shared" si="11"/>
         <v>2527</v>
@@ -5912,11 +6376,14 @@
         <v>383</v>
       </c>
       <c r="F182" s="4"/>
-      <c r="G182" s="4" t="s">
+      <c r="G182" s="18" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <f t="shared" si="11"/>
         <v>2528</v>
@@ -5935,11 +6402,14 @@
         <v>384</v>
       </c>
       <c r="F183" s="4"/>
-      <c r="G183" s="4" t="s">
+      <c r="G183" s="18" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <f t="shared" si="11"/>
         <v>2529</v>
@@ -5958,11 +6428,14 @@
         <v>385</v>
       </c>
       <c r="F184" s="4"/>
-      <c r="G184" s="4" t="s">
+      <c r="G184" s="18" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <f t="shared" si="11"/>
         <v>2530</v>
@@ -5981,11 +6454,14 @@
         <v>386</v>
       </c>
       <c r="F185" s="4"/>
-      <c r="G185" s="4" t="s">
+      <c r="G185" s="18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <f t="shared" si="11"/>
         <v>2531</v>
@@ -6004,11 +6480,14 @@
         <v>387</v>
       </c>
       <c r="F186" s="4"/>
-      <c r="G186" s="4" t="s">
+      <c r="G186" s="18" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <f t="shared" si="11"/>
         <v>2532</v>
@@ -6027,20 +6506,24 @@
         <v>388</v>
       </c>
       <c r="F187" s="4"/>
-      <c r="G187" s="4" t="s">
+      <c r="G187" s="18" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="7"/>
       <c r="D188" s="8"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="18"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <f>A155+50</f>
         <v>2550</v>
@@ -6059,11 +6542,14 @@
         <v>190</v>
       </c>
       <c r="F189" s="4"/>
-      <c r="G189" s="4" t="s">
+      <c r="G189" s="18" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <f>A189+1</f>
         <v>2551</v>
@@ -6082,11 +6568,14 @@
         <v>191</v>
       </c>
       <c r="F190" s="4"/>
-      <c r="G190" s="4" t="s">
+      <c r="G190" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <f t="shared" ref="A191:A220" si="13">A190+1</f>
         <v>2552</v>
@@ -6105,11 +6594,14 @@
         <v>192</v>
       </c>
       <c r="F191" s="4"/>
-      <c r="G191" s="4" t="s">
+      <c r="G191" s="18" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <f t="shared" si="13"/>
         <v>2553</v>
@@ -6128,11 +6620,14 @@
         <v>193</v>
       </c>
       <c r="F192" s="4"/>
-      <c r="G192" s="4" t="s">
+      <c r="G192" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <f t="shared" si="13"/>
         <v>2554</v>
@@ -6151,9 +6646,10 @@
         <v>194</v>
       </c>
       <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="18"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <f t="shared" si="13"/>
         <v>2555</v>
@@ -6172,9 +6668,10 @@
         <v>195</v>
       </c>
       <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="18"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <f t="shared" si="13"/>
         <v>2556</v>
@@ -6193,9 +6690,10 @@
         <v>196</v>
       </c>
       <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="18"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <f t="shared" si="13"/>
         <v>2557</v>
@@ -6214,9 +6712,10 @@
         <v>197</v>
       </c>
       <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="18"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <f t="shared" si="13"/>
         <v>2558</v>
@@ -6235,9 +6734,10 @@
         <v>198</v>
       </c>
       <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="18"/>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <f t="shared" si="13"/>
         <v>2559</v>
@@ -6256,9 +6756,10 @@
         <v>199</v>
       </c>
       <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="18"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <f t="shared" si="13"/>
         <v>2560</v>
@@ -6277,9 +6778,10 @@
         <v>200</v>
       </c>
       <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="18"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <f t="shared" si="13"/>
         <v>2561</v>
@@ -6298,9 +6800,10 @@
         <v>201</v>
       </c>
       <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="18"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <f t="shared" si="13"/>
         <v>2562</v>
@@ -6319,9 +6822,10 @@
         <v>202</v>
       </c>
       <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="18"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <f t="shared" si="13"/>
         <v>2563</v>
@@ -6340,9 +6844,10 @@
         <v>203</v>
       </c>
       <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="18"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <f t="shared" si="13"/>
         <v>2564</v>
@@ -6361,9 +6866,10 @@
         <v>204</v>
       </c>
       <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="18"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <f t="shared" si="13"/>
         <v>2565</v>
@@ -6382,9 +6888,10 @@
         <v>205</v>
       </c>
       <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="18"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <f t="shared" si="13"/>
         <v>2566</v>
@@ -6403,9 +6910,10 @@
         <v>206</v>
       </c>
       <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="18"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <f t="shared" si="13"/>
         <v>2567</v>
@@ -6424,9 +6932,10 @@
         <v>207</v>
       </c>
       <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G206" s="18"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <f t="shared" si="13"/>
         <v>2568</v>
@@ -6445,9 +6954,10 @@
         <v>208</v>
       </c>
       <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G207" s="18"/>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <f t="shared" si="13"/>
         <v>2569</v>
@@ -6466,9 +6976,10 @@
         <v>209</v>
       </c>
       <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="18"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <f t="shared" si="13"/>
         <v>2570</v>
@@ -6487,9 +6998,10 @@
         <v>210</v>
       </c>
       <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="18"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <f t="shared" si="13"/>
         <v>2571</v>
@@ -6508,9 +7020,10 @@
         <v>211</v>
       </c>
       <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="18"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <f t="shared" si="13"/>
         <v>2572</v>
@@ -6529,9 +7042,10 @@
         <v>212</v>
       </c>
       <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="18"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <f t="shared" si="13"/>
         <v>2573</v>
@@ -6550,9 +7064,10 @@
         <v>213</v>
       </c>
       <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="18"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <f t="shared" si="13"/>
         <v>2574</v>
@@ -6571,9 +7086,10 @@
         <v>214</v>
       </c>
       <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="18"/>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <f t="shared" si="13"/>
         <v>2575</v>
@@ -6592,9 +7108,10 @@
         <v>215</v>
       </c>
       <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G214" s="18"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <f t="shared" si="13"/>
         <v>2576</v>
@@ -6613,9 +7130,10 @@
         <v>216</v>
       </c>
       <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G215" s="18"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <f t="shared" si="13"/>
         <v>2577</v>
@@ -6634,9 +7152,10 @@
         <v>217</v>
       </c>
       <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G216" s="18"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <f t="shared" si="13"/>
         <v>2578</v>
@@ -6655,9 +7174,10 @@
         <v>218</v>
       </c>
       <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="18"/>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <f t="shared" si="13"/>
         <v>2579</v>
@@ -6676,9 +7196,10 @@
         <v>219</v>
       </c>
       <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G218" s="18"/>
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <f t="shared" si="13"/>
         <v>2580</v>
@@ -6697,9 +7218,10 @@
         <v>220</v>
       </c>
       <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G219" s="18"/>
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <f t="shared" si="13"/>
         <v>2581</v>
@@ -6718,18 +7240,20 @@
         <v>221</v>
       </c>
       <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G220" s="18"/>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="4"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G221" s="18"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>2585</v>
       </c>
@@ -6746,11 +7270,14 @@
         <v>292</v>
       </c>
       <c r="F222" s="4"/>
-      <c r="G222" s="4" t="s">
+      <c r="G222" s="18" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H222" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>2586</v>
       </c>
@@ -6767,11 +7294,14 @@
         <v>289</v>
       </c>
       <c r="F223" s="4"/>
-      <c r="G223" s="4" t="s">
+      <c r="G223" s="18" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H223" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2587</v>
       </c>
@@ -6788,11 +7318,14 @@
         <v>290</v>
       </c>
       <c r="F224" s="4"/>
-      <c r="G224" s="4" t="s">
+      <c r="G224" s="18" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H224" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2588</v>
       </c>
@@ -6809,11 +7342,14 @@
         <v>291</v>
       </c>
       <c r="F225" s="4"/>
-      <c r="G225" s="4" t="s">
+      <c r="G225" s="18" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H225" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5" t="s">
         <v>403</v>
@@ -6828,11 +7364,12 @@
       <c r="F226" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G226" s="5" t="s">
+      <c r="G226" s="17" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <f>A2+600</f>
         <v>2600</v>
@@ -6849,11 +7386,14 @@
       <c r="F227" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G227" s="8" t="s">
+      <c r="G227" s="19" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <f>A227+1</f>
         <v>2601</v>
@@ -6870,11 +7410,14 @@
       <c r="F228" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G228" s="4" t="s">
+      <c r="G228" s="18" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <f t="shared" ref="A229:A259" si="15">A228+1</f>
         <v>2602</v>
@@ -6891,11 +7434,14 @@
       <c r="F229" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G229" s="4" t="s">
+      <c r="G229" s="18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <f t="shared" si="15"/>
         <v>2603</v>
@@ -6912,11 +7458,14 @@
       <c r="F230" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G230" s="4" t="s">
+      <c r="G230" s="18" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <f t="shared" si="15"/>
         <v>2604</v>
@@ -6933,11 +7482,14 @@
       <c r="F231" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G231" s="4" t="s">
+      <c r="G231" s="18" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <f t="shared" si="15"/>
         <v>2605</v>
@@ -6954,11 +7506,14 @@
       <c r="F232" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G232" s="4" t="s">
+      <c r="G232" s="18" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <f t="shared" si="15"/>
         <v>2606</v>
@@ -6975,11 +7530,14 @@
       <c r="F233" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G233" s="4" t="s">
+      <c r="G233" s="18" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <f t="shared" si="15"/>
         <v>2607</v>
@@ -6996,11 +7554,14 @@
       <c r="F234" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G234" s="4" t="s">
+      <c r="G234" s="18" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <f t="shared" si="15"/>
         <v>2608</v>
@@ -7017,11 +7578,14 @@
       <c r="F235" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G235" s="4" t="s">
+      <c r="G235" s="18" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <f t="shared" si="15"/>
         <v>2609</v>
@@ -7038,11 +7602,14 @@
       <c r="F236" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G236" s="4" t="s">
+      <c r="G236" s="18" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <f t="shared" si="15"/>
         <v>2610</v>
@@ -7059,11 +7626,14 @@
       <c r="F237" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G237" s="4" t="s">
+      <c r="G237" s="18" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <f t="shared" si="15"/>
         <v>2611</v>
@@ -7080,11 +7650,14 @@
       <c r="F238" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G238" s="4" t="s">
+      <c r="G238" s="18" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <f t="shared" si="15"/>
         <v>2612</v>
@@ -7101,11 +7674,14 @@
       <c r="F239" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G239" s="4" t="s">
+      <c r="G239" s="18" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <f t="shared" si="15"/>
         <v>2613</v>
@@ -7122,11 +7698,14 @@
       <c r="F240" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G240" s="4" t="s">
+      <c r="G240" s="18" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <f t="shared" si="15"/>
         <v>2614</v>
@@ -7143,11 +7722,14 @@
       <c r="F241" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G241" s="4" t="s">
+      <c r="G241" s="18" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <f t="shared" si="15"/>
         <v>2615</v>
@@ -7164,11 +7746,14 @@
       <c r="F242" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G242" s="4" t="s">
+      <c r="G242" s="18" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <f t="shared" si="15"/>
         <v>2616</v>
@@ -7185,11 +7770,14 @@
       <c r="F243" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G243" s="4" t="s">
+      <c r="G243" s="18" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <f t="shared" si="15"/>
         <v>2617</v>
@@ -7206,11 +7794,14 @@
       <c r="F244" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G244" s="4" t="s">
+      <c r="G244" s="18" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <f t="shared" si="15"/>
         <v>2618</v>
@@ -7227,11 +7818,14 @@
       <c r="F245" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G245" s="4" t="s">
+      <c r="G245" s="18" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <f t="shared" si="15"/>
         <v>2619</v>
@@ -7248,11 +7842,14 @@
       <c r="F246" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G246" s="4" t="s">
+      <c r="G246" s="18" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <f t="shared" si="15"/>
         <v>2620</v>
@@ -7269,11 +7866,14 @@
       <c r="F247" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G247" s="4" t="s">
+      <c r="G247" s="18" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <f t="shared" si="15"/>
         <v>2621</v>
@@ -7290,11 +7890,14 @@
       <c r="F248" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G248" s="4" t="s">
+      <c r="G248" s="18" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <f t="shared" si="15"/>
         <v>2622</v>
@@ -7311,11 +7914,14 @@
       <c r="F249" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G249" s="4" t="s">
+      <c r="G249" s="18" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <f t="shared" si="15"/>
         <v>2623</v>
@@ -7332,11 +7938,14 @@
       <c r="F250" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G250" s="4" t="s">
+      <c r="G250" s="18" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <f t="shared" si="15"/>
         <v>2624</v>
@@ -7353,11 +7962,14 @@
       <c r="F251" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G251" s="4" t="s">
+      <c r="G251" s="18" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <f t="shared" si="15"/>
         <v>2625</v>
@@ -7374,11 +7986,14 @@
       <c r="F252" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G252" s="4" t="s">
+      <c r="G252" s="18" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <f t="shared" si="15"/>
         <v>2626</v>
@@ -7395,11 +8010,14 @@
       <c r="F253" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G253" s="4" t="s">
+      <c r="G253" s="18" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <f t="shared" si="15"/>
         <v>2627</v>
@@ -7416,11 +8034,14 @@
       <c r="F254" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G254" s="4" t="s">
+      <c r="G254" s="18" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <f t="shared" si="15"/>
         <v>2628</v>
@@ -7437,11 +8058,14 @@
       <c r="F255" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G255" s="4" t="s">
+      <c r="G255" s="18" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <f t="shared" si="15"/>
         <v>2629</v>
@@ -7458,11 +8082,14 @@
       <c r="F256" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G256" s="4" t="s">
+      <c r="G256" s="18" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <f t="shared" si="15"/>
         <v>2630</v>
@@ -7479,11 +8106,14 @@
       <c r="F257" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="G257" s="4" t="s">
+      <c r="G257" s="18" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <f t="shared" si="15"/>
         <v>2631</v>
@@ -7500,11 +8130,14 @@
       <c r="F258" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G258" s="4" t="s">
+      <c r="G258" s="18" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <f t="shared" si="15"/>
         <v>2632</v>
@@ -7521,20 +8154,24 @@
       <c r="F259" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G259" s="4" t="s">
+      <c r="G259" s="18" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="7"/>
       <c r="D260" s="8"/>
       <c r="E260" s="4"/>
       <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G260" s="19"/>
+      <c r="H260" s="8"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <f>A227+50</f>
         <v>2650</v>
@@ -7551,11 +8188,14 @@
       <c r="F261" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G261" s="4" t="s">
+      <c r="G261" s="18" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <f>A261+1</f>
         <v>2651</v>
@@ -7572,11 +8212,14 @@
       <c r="F262" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G262" s="4" t="s">
+      <c r="G262" s="18" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <f t="shared" ref="A263:A272" si="17">A262+1</f>
         <v>2652</v>
@@ -7593,11 +8236,14 @@
       <c r="F263" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G263" s="4" t="s">
+      <c r="G263" s="18" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <f t="shared" si="17"/>
         <v>2653</v>
@@ -7614,11 +8260,14 @@
       <c r="F264" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G264" s="4" t="s">
+      <c r="G264" s="18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <f t="shared" si="17"/>
         <v>2654</v>
@@ -7635,11 +8284,14 @@
       <c r="F265" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G265" s="4" t="s">
+      <c r="G265" s="18" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <f t="shared" si="17"/>
         <v>2655</v>
@@ -7656,11 +8308,14 @@
       <c r="F266" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G266" s="4" t="s">
+      <c r="G266" s="18" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <f t="shared" si="17"/>
         <v>2656</v>
@@ -7677,11 +8332,14 @@
       <c r="F267" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G267" s="4" t="s">
+      <c r="G267" s="18" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <f t="shared" si="17"/>
         <v>2657</v>
@@ -7698,11 +8356,14 @@
       <c r="F268" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G268" s="4" t="s">
+      <c r="G268" s="18" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <f t="shared" si="17"/>
         <v>2658</v>
@@ -7719,11 +8380,14 @@
       <c r="F269" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G269" s="4" t="s">
+      <c r="G269" s="18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <f t="shared" si="17"/>
         <v>2659</v>
@@ -7740,11 +8404,14 @@
       <c r="F270" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G270" s="4" t="s">
+      <c r="G270" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <f t="shared" si="17"/>
         <v>2660</v>
@@ -7761,11 +8428,14 @@
       <c r="F271" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G271" s="4" t="s">
+      <c r="G271" s="18" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <f t="shared" si="17"/>
         <v>2661</v>
@@ -7782,100 +8452,104 @@
       <c r="F272" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G272" s="4" t="s">
+      <c r="G272" s="18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H272" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="C273" s="2"/>
-      <c r="H273" s="14"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G273" s="21"/>
+      <c r="I273" s="14"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="9"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="9"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="9"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="9"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="9"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="9"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
       <c r="D283" s="9"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="9"/>
       <c r="C284" s="10"/>
       <c r="D284" s="9"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="9"/>
       <c r="C285" s="10"/>
       <c r="D285" s="9"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="9"/>
       <c r="C286" s="10"/>
       <c r="D286" s="9"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="9"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>

--- a/Протокол 101.xlsx
+++ b/Протокол 101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="478">
   <si>
     <t>№101</t>
   </si>
@@ -1428,9 +1428,6 @@
     <t>ОБЩ Предуп 0x0001: Резерв</t>
   </si>
   <si>
-    <t>РЗСК-111-ВОЛС</t>
-  </si>
-  <si>
     <t>ЗАЩ Неиспр 0x0010: Нет КС</t>
   </si>
   <si>
@@ -1450,6 +1447,9 @@
   </si>
   <si>
     <t>ОБЩ Предуп 0x0010: Удал.ПОСТ неиспр</t>
+  </si>
+  <si>
+    <t>РЗСК-188-ВОЛС</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H20:H21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1918,7 @@
         <v>462</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
         <v>336</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>337</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>338</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>469</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,9 @@
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="18"/>
-      <c r="H122" s="4"/>
+      <c r="H122" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -4979,7 +4981,9 @@
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="18"/>
-      <c r="H123" s="4"/>
+      <c r="H123" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
@@ -5001,7 +5005,9 @@
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="18"/>
-      <c r="H124" s="4"/>
+      <c r="H124" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
@@ -5023,7 +5029,9 @@
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="18"/>
-      <c r="H125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
@@ -5045,7 +5053,9 @@
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="18"/>
-      <c r="H126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
@@ -5067,7 +5077,9 @@
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="18"/>
-      <c r="H127" s="4"/>
+      <c r="H127" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -5089,7 +5101,9 @@
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="18"/>
-      <c r="H128" s="4"/>
+      <c r="H128" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -5111,7 +5125,9 @@
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="18"/>
-      <c r="H129" s="4"/>
+      <c r="H129" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
@@ -5133,7 +5149,9 @@
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="18"/>
-      <c r="H130" s="4"/>
+      <c r="H130" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
@@ -5155,7 +5173,9 @@
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="18"/>
-      <c r="H131" s="4"/>
+      <c r="H131" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
@@ -5177,7 +5197,9 @@
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="18"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
@@ -5199,7 +5221,9 @@
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="18"/>
-      <c r="H133" s="4"/>
+      <c r="H133" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
@@ -5221,7 +5245,9 @@
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="18"/>
-      <c r="H134" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
@@ -5243,7 +5269,9 @@
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="18"/>
-      <c r="H135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
@@ -5265,7 +5293,9 @@
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="18"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
@@ -5287,7 +5317,9 @@
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="18"/>
-      <c r="H137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
@@ -5309,7 +5341,9 @@
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="18"/>
-      <c r="H138" s="4"/>
+      <c r="H138" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -5331,7 +5365,9 @@
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="18"/>
-      <c r="H139" s="4"/>
+      <c r="H139" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
@@ -5353,7 +5389,9 @@
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="18"/>
-      <c r="H140" s="4"/>
+      <c r="H140" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
@@ -5375,7 +5413,9 @@
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="18"/>
-      <c r="H141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
@@ -5397,7 +5437,9 @@
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="18"/>
-      <c r="H142" s="4"/>
+      <c r="H142" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
@@ -5419,7 +5461,9 @@
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="18"/>
-      <c r="H143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
@@ -5441,7 +5485,9 @@
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="18"/>
-      <c r="H144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
@@ -5463,7 +5509,9 @@
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="18"/>
-      <c r="H145" s="4"/>
+      <c r="H145" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
@@ -5485,7 +5533,9 @@
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="18"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
@@ -5507,7 +5557,9 @@
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="18"/>
-      <c r="H147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
@@ -5529,7 +5581,9 @@
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="18"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
@@ -5551,7 +5605,9 @@
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="18"/>
-      <c r="H149" s="4"/>
+      <c r="H149" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -6647,7 +6703,9 @@
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="18"/>
-      <c r="H193" s="4"/>
+      <c r="H193" s="4" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
@@ -6669,7 +6727,9 @@
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="18"/>
-      <c r="H194" s="4"/>
+      <c r="H194" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
@@ -6691,7 +6751,9 @@
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="18"/>
-      <c r="H195" s="4"/>
+      <c r="H195" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
@@ -6713,7 +6775,9 @@
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="18"/>
-      <c r="H196" s="4"/>
+      <c r="H196" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
@@ -6735,7 +6799,9 @@
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="18"/>
-      <c r="H197" s="4"/>
+      <c r="H197" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
@@ -6757,7 +6823,9 @@
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="18"/>
-      <c r="H198" s="4"/>
+      <c r="H198" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
@@ -6779,7 +6847,9 @@
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="18"/>
-      <c r="H199" s="4"/>
+      <c r="H199" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
@@ -6801,7 +6871,9 @@
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="18"/>
-      <c r="H200" s="4"/>
+      <c r="H200" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
@@ -6823,7 +6895,9 @@
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="18"/>
-      <c r="H201" s="4"/>
+      <c r="H201" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
@@ -6845,7 +6919,9 @@
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="18"/>
-      <c r="H202" s="4"/>
+      <c r="H202" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
@@ -6867,7 +6943,9 @@
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="18"/>
-      <c r="H203" s="4"/>
+      <c r="H203" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
@@ -6889,7 +6967,9 @@
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="18"/>
-      <c r="H204" s="4"/>
+      <c r="H204" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
@@ -6911,7 +6991,9 @@
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="18"/>
-      <c r="H205" s="4"/>
+      <c r="H205" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
@@ -6933,7 +7015,9 @@
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="18"/>
-      <c r="H206" s="4"/>
+      <c r="H206" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
@@ -6955,7 +7039,9 @@
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="18"/>
-      <c r="H207" s="4"/>
+      <c r="H207" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
@@ -6977,7 +7063,9 @@
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="18"/>
-      <c r="H208" s="4"/>
+      <c r="H208" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
@@ -6999,7 +7087,9 @@
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="18"/>
-      <c r="H209" s="4"/>
+      <c r="H209" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
@@ -7021,7 +7111,9 @@
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="18"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
@@ -7043,7 +7135,9 @@
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="18"/>
-      <c r="H211" s="4"/>
+      <c r="H211" s="4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
@@ -7065,7 +7159,9 @@
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="18"/>
-      <c r="H212" s="4"/>
+      <c r="H212" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -7087,7 +7183,9 @@
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="18"/>
-      <c r="H213" s="4"/>
+      <c r="H213" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
@@ -7109,7 +7207,9 @@
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="18"/>
-      <c r="H214" s="4"/>
+      <c r="H214" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
@@ -7131,7 +7231,9 @@
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="18"/>
-      <c r="H215" s="4"/>
+      <c r="H215" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
@@ -7153,7 +7255,9 @@
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="18"/>
-      <c r="H216" s="4"/>
+      <c r="H216" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
@@ -7175,7 +7279,9 @@
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="18"/>
-      <c r="H217" s="4"/>
+      <c r="H217" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
@@ -7197,7 +7303,9 @@
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="18"/>
-      <c r="H218" s="4"/>
+      <c r="H218" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -7219,7 +7327,9 @@
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="18"/>
-      <c r="H219" s="4"/>
+      <c r="H219" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
@@ -7241,7 +7351,9 @@
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="18"/>
-      <c r="H220" s="4"/>
+      <c r="H220" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
@@ -7510,7 +7622,7 @@
         <v>464</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7726,7 +7838,7 @@
         <v>441</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7750,7 +7862,7 @@
         <v>465</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7774,7 +7886,7 @@
         <v>466</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7798,7 +7910,7 @@
         <v>467</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8581,7 +8693,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
